--- a/titulos.xlsx
+++ b/titulos.xlsx
@@ -11,30 +11,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Specious Double Room Available, Baker St</t>
-  </si>
-  <si>
-    <t>🏡✨ Amazing 3 New Rooms in Hyde Park ✨</t>
-  </si>
-  <si>
-    <t>Double room London central</t>
-  </si>
-  <si>
-    <t>Double Room in Willesden Junction</t>
-  </si>
-  <si>
-    <t>2 Bed | 2 Bath | Modern Maida Vale</t>
-  </si>
-  <si>
-    <t>Modern 2 Bed | Maida Vale | September | Sharers</t>
-  </si>
-  <si>
-    <t>Nice &amp; Large 1 bed Flat  With Great Views.Must See</t>
-  </si>
-  <si>
-    <t>2 rooms in the same house  ZONE 1 + Living room</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Large DBL ensuite - Great transport links</t>
+  </si>
+  <si>
+    <t>Lovely double in quiet house (£699/mth)</t>
+  </si>
+  <si>
+    <t>Double Room Available NOW - Willesden Green</t>
+  </si>
+  <si>
+    <t>Lambeth north Last double room,(14BRIANT)</t>
+  </si>
+  <si>
+    <t>Fantastic Offer in Baker Street - Double Room</t>
+  </si>
+  <si>
+    <t>Beautiful Sublet in Paddington</t>
   </si>
 </sst>
 </file>
@@ -411,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -444,16 +438,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
